--- a/TMT_fmri/TMTstop-B_1_merged.xlsx
+++ b/TMT_fmri/TMTstop-B_1_merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Experiment paradigms/TMT_PsychoPY_new/TMT_fmri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F0007AE-DBCA-4C3E-9BF1-C0A21452F6E2}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B557F8D-6647-42E4-8780-8918F1E56CEF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="900" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,10 +1604,10 @@
       </c>
       <c r="B2" t="str">
         <f>"['"&amp;C2&amp;"']"</f>
-        <v>['2']</v>
+        <v>['3']</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1664,10 +1664,10 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['3']</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1694,10 +1694,10 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>['1']</v>
+        <v>['2']</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -1724,10 +1724,10 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>['3']</v>
+        <v>['1']</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1754,10 +1754,10 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['3']</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1784,10 +1784,10 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>['3']</v>
+        <v>['2']</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1844,10 +1844,10 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['3']</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -1874,10 +1874,10 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>['3']</v>
+        <v>['1']</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -1904,10 +1904,10 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>['1']</v>
+        <v>['3']</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -1934,10 +1934,10 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['1']</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1964,10 +1964,10 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>['1']</v>
+        <v>['3']</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
@@ -2024,10 +2024,10 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>['1']</v>
+        <v>['3']</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -2054,10 +2054,10 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['1']</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
@@ -2114,10 +2114,10 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>['1']</v>
+        <v>['2']</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -2144,10 +2144,10 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['3']</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -2174,10 +2174,10 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>['1']</v>
+        <v>['2']</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
@@ -2204,10 +2204,10 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['1']</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
@@ -2234,10 +2234,10 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>['3']</v>
+        <v>['2']</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
@@ -2294,10 +2294,10 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>['3']</v>
+        <v>['2']</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>62</v>
@@ -2324,10 +2324,10 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>['2']</v>
+        <v>['1']</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -2376,7 +2376,7 @@
         <v>93</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>94</v>
@@ -2405,7 +2405,7 @@
         <v>95</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>94</v>
@@ -2492,7 +2492,7 @@
         <v>95</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>105</v>
@@ -2521,7 +2521,7 @@
         <v>98</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
         <v>108</v>
@@ -2579,7 +2579,7 @@
         <v>95</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>114</v>
@@ -2637,7 +2637,7 @@
         <v>98</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>120</v>
@@ -2666,7 +2666,7 @@
         <v>95</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>123</v>
@@ -2695,7 +2695,7 @@
         <v>98</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
         <v>126</v>
@@ -2724,7 +2724,7 @@
         <v>95</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>129</v>
@@ -2782,7 +2782,7 @@
         <v>95</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>135</v>
@@ -2927,7 +2927,7 @@
         <v>95</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>150</v>
@@ -2956,7 +2956,7 @@
         <v>93</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -2985,7 +2985,7 @@
         <v>95</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>156</v>
@@ -3072,7 +3072,7 @@
         <v>95</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>165</v>
@@ -3121,7 +3121,7 @@
         <v>95</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
         <v>171</v>
@@ -3150,7 +3150,7 @@
         <v>93</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>171</v>
@@ -3179,7 +3179,7 @@
         <v>95</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
         <v>174</v>
@@ -3208,7 +3208,7 @@
         <v>93</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>177</v>
@@ -3237,7 +3237,7 @@
         <v>95</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>180</v>
@@ -3266,7 +3266,7 @@
         <v>98</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>183</v>
@@ -3353,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>192</v>
@@ -3469,7 +3469,7 @@
         <v>98</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
         <v>204</v>
@@ -3527,7 +3527,7 @@
         <v>93</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
         <v>210</v>
@@ -3556,7 +3556,7 @@
         <v>95</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
         <v>213</v>
@@ -3614,7 +3614,7 @@
         <v>93</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
         <v>219</v>
@@ -3643,7 +3643,7 @@
         <v>95</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
         <v>222</v>
@@ -3788,7 +3788,7 @@
         <v>98</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
         <v>237</v>
@@ -3817,7 +3817,7 @@
         <v>95</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
         <v>240</v>
@@ -3866,7 +3866,7 @@
         <v>98</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
         <v>246</v>
@@ -4011,7 +4011,7 @@
         <v>93</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
         <v>258</v>
@@ -4069,7 +4069,7 @@
         <v>98</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
         <v>264</v>
@@ -4098,7 +4098,7 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
         <v>267</v>
@@ -4127,7 +4127,7 @@
         <v>95</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
         <v>270</v>
@@ -4185,7 +4185,7 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
         <v>276</v>
@@ -4214,7 +4214,7 @@
         <v>98</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
         <v>279</v>
@@ -4243,7 +4243,7 @@
         <v>95</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>282</v>
@@ -4272,7 +4272,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
         <v>285</v>
@@ -4301,7 +4301,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
         <v>288</v>
@@ -4330,7 +4330,7 @@
         <v>93</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
         <v>291</v>
@@ -4359,7 +4359,7 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
         <v>294</v>
@@ -4388,7 +4388,7 @@
         <v>95</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
         <v>297</v>
@@ -4417,7 +4417,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
         <v>300</v>
@@ -4446,7 +4446,7 @@
         <v>95</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
         <v>303</v>
@@ -4475,7 +4475,7 @@
         <v>93</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
         <v>306</v>
@@ -4504,7 +4504,7 @@
         <v>95</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
         <v>309</v>
@@ -4533,7 +4533,7 @@
         <v>93</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
         <v>312</v>
@@ -4562,7 +4562,7 @@
         <v>95</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
         <v>315</v>
@@ -4727,7 +4727,7 @@
         <v>98</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
         <v>330</v>
@@ -4814,7 +4814,7 @@
         <v>95</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113" t="s">
         <v>339</v>
@@ -4843,7 +4843,7 @@
         <v>93</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" t="s">
         <v>342</v>
@@ -4872,7 +4872,7 @@
         <v>95</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
         <v>345</v>
@@ -4901,7 +4901,7 @@
         <v>93</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="s">
         <v>348</v>
@@ -4930,7 +4930,7 @@
         <v>95</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
         <v>351</v>
@@ -4959,7 +4959,7 @@
         <v>98</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
         <v>354</v>
@@ -4988,7 +4988,7 @@
         <v>95</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>357</v>
@@ -5017,7 +5017,7 @@
         <v>98</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
         <v>360</v>
@@ -5104,7 +5104,7 @@
         <v>98</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" t="s">
         <v>369</v>
@@ -5249,7 +5249,7 @@
         <v>95</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
         <v>384</v>
@@ -5278,7 +5278,7 @@
         <v>98</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
         <v>387</v>
@@ -5307,7 +5307,7 @@
         <v>95</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>390</v>
